--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang.minh.nguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoang\Django\django_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77044138-0678-44DD-AF6C-CC2017431A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05122DB6-EA72-4ADE-AC77-AAD48CF157DD}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="関数リスト_送り状データ" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">関数リスト_送り状データ!$A$1:$BN$287</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">関数リスト_送り状データ!$A$1:$BN$292</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">関数リスト_送り状データ!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>作成者</t>
   </si>
@@ -303,15 +302,98 @@
     <t>4-3)</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>\web-django\src\webapp\zm\page\print\print_view.py</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>xmlファイルにアクセスして情報を取得し、ページを表示する</t>
+  </si>
+  <si>
+    <t>4.4)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\exs_main\views.py</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Webページの[フッター]セクションを構成します。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.5)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[render]メソッドを使用して、Webページを作成するための設定を含むオブジェクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[self.config]として渡されたパラメーターを使用して、クライアントテンプレート</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>（htmlファイル）を返します。</t>
+  </si>
+  <si>
+    <t>\web-django\src\webapp\zm\templates\print\print.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>self.getTemplate（）関数がテンプレートのprint.htmlを呼び出す</t>
+  </si>
+  <si>
+    <t>\webapp\zm\templates\common\features\download_print\download_print.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ファイルprint.htmlの中でdownload_print.htmlファイルをインクルードします。</t>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>download_print.htmlファイルがzm.htmlファイルに継承されます。</t>
+    <rPh sb="36" eb="38">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>download_print.htmlファイルの内容はブロック[main_body_block]で上書きされます]</t>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>当初、画面は単純なフォームしかありませんでした。格jsファイルをダウンロードしてから、</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>HTMLコードの[header and footer]のパスに基づいてcssおよびjsファイルをダウンロードします</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>U06PR000.jsファイルのonloadイベントが呼び出されます</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +582,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +856,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,30 +982,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{B4563455-631F-42AE-B5FD-16E369C7A6B7}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 15" xfId="3" xr:uid="{6461F856-CDB7-4A86-88F3-B2ABA1F1602A}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{FCCE5DEC-6FCF-4644-8B26-3E0D9609A1EA}"/>
+    <cellStyle name="標準 15" xfId="3"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,13 +1319,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1287,13 +1379,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1349,13 +1441,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1418,13 +1510,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1487,13 +1579,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1548,13 +1640,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1604,13 +1696,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1676,13 +1768,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1732,13 +1824,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1788,13 +1880,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1844,13 +1936,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>18671</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>47057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1888,13 +1980,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1948,13 +2040,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8776</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>32098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1992,13 +2084,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>113941</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>96179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2036,13 +2128,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2099,13 +2191,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2154,13 +2246,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,13 +2309,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2272,13 +2364,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>26309</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2316,13 +2408,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2376,13 +2468,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2439,13 +2531,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2494,13 +2586,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2547,13 +2639,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>149420</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>192118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2591,13 +2683,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>21068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>35144</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>183072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2635,14 +2727,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>167641</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>86049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>68581</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>192729</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2665,8 +2757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="563881" y="34162689"/>
-          <a:ext cx="3467100" cy="2087880"/>
+          <a:off x="567691" y="26089299"/>
+          <a:ext cx="3501390" cy="2552376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2677,15 +2769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>59060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>109683</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:colOff>185883</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>62701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2709,8 +2801,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="350520" y="27597740"/>
-          <a:ext cx="5900883" cy="1192361"/>
+          <a:off x="428625" y="28862660"/>
+          <a:ext cx="5958033" cy="1203791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,13 +2815,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>35720</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>1870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2766,13 +2858,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>73568</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>165093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2810,13 +2902,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2870,13 +2962,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2923,13 +3015,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>130691</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>182551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3872,13 +3964,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>47267</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>131415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3916,13 +4008,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>96890</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>140934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3960,13 +4052,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>186411</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>139030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4004,13 +4096,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>66294</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>91169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4047,13 +4139,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4107,13 +4199,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>83058</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>182881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4150,13 +4242,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4200,6 +4292,857 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56526</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="38976300"/>
+          <a:ext cx="4990476" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56524</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>37837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="40938450"/>
+          <a:ext cx="5009524" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486024" y="40490775"/>
+          <a:ext cx="276225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18818</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>76174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="43472100"/>
+          <a:ext cx="1857143" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>152223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="44338875"/>
+          <a:ext cx="6438899" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="下矢印 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="43776900"/>
+          <a:ext cx="276225" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199487</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>38070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="46986825"/>
+          <a:ext cx="4304762" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>165453</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>8638</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>104646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6966303" y="38633400"/>
+          <a:ext cx="6043960" cy="876171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>2527</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>170894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="40347900"/>
+          <a:ext cx="6231877" cy="3028394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="下矢印 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363074" y="39843075"/>
+          <a:ext cx="276225" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95071</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>152362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="47605950"/>
+          <a:ext cx="1428571" cy="304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="下矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="44586525"/>
+          <a:ext cx="276225" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>178285</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>198499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F540E5B4-E168-440E-8F77-F0B618E42822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="79885" t="4885" r="3256" b="71552"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="45205650"/>
+          <a:ext cx="549760" cy="598549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142208</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>47401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="48120300"/>
+          <a:ext cx="5333333" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142584</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>9436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="50558700"/>
+          <a:ext cx="2323809" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113462</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>94773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="51587399"/>
+          <a:ext cx="6285662" cy="3571399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="下矢印 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="51082576"/>
+          <a:ext cx="285750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="50730150"/>
+          <a:ext cx="1733550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="53378100"/>
+          <a:ext cx="3419475" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4505,34 +5448,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0466D76-434C-418F-81C9-9AC8CCB3D099}">
-  <dimension ref="A1:BN290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN295"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A102" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY109" sqref="AY109"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A253" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R281" sqref="R281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.59765625" style="2"/>
+    <col min="1" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4555,122 +5498,122 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="AJ1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="54" t="s">
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="54" t="s">
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="54" t="s">
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="56"/>
-    </row>
-    <row r="2" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="62"/>
+    </row>
+    <row r="2" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="63">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="69">
         <v>43951</v>
       </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="69" t="s">
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="63" t="s">
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="39" t="s">
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="41"/>
-    </row>
-    <row r="3" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="47"/>
+    </row>
+    <row r="3" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -4693,39 +5636,39 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="44"/>
-    </row>
-    <row r="4" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="50"/>
+    </row>
+    <row r="4" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -4755,11 +5698,11 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="6"/>
-      <c r="AH4" s="75" t="s">
+      <c r="AH4" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +5774,7 @@
       <c r="BM5" s="12"/>
       <c r="BN5" s="5"/>
     </row>
-    <row r="6" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4899,7 +5842,7 @@
       <c r="BM6" s="12"/>
       <c r="BN6" s="5"/>
     </row>
-    <row r="7" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4967,7 +5910,7 @@
       <c r="BM7" s="12"/>
       <c r="BN7" s="5"/>
     </row>
-    <row r="8" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -5035,7 +5978,7 @@
       <c r="BM8" s="12"/>
       <c r="BN8" s="5"/>
     </row>
-    <row r="9" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -5107,7 +6050,7 @@
       <c r="BM9" s="12"/>
       <c r="BN9" s="5"/>
     </row>
-    <row r="10" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -5175,7 +6118,7 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="5"/>
     </row>
-    <row r="11" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -5243,7 +6186,7 @@
       <c r="BM11" s="12"/>
       <c r="BN11" s="5"/>
     </row>
-    <row r="12" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5311,7 +6254,7 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="5"/>
     </row>
-    <row r="13" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5379,7 +6322,7 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="5"/>
     </row>
-    <row r="14" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5451,7 +6394,7 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="5"/>
     </row>
-    <row r="15" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5519,7 +6462,7 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="5"/>
     </row>
-    <row r="16" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5587,7 +6530,7 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="5"/>
     </row>
-    <row r="17" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5655,7 +6598,7 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="5"/>
     </row>
-    <row r="18" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5702,7 +6645,7 @@
       <c r="AP18" s="12"/>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
-      <c r="AS18" s="76" t="s">
+      <c r="AS18" s="40" t="s">
         <v>29</v>
       </c>
       <c r="AT18" s="16"/>
@@ -5727,7 +6670,7 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="5"/>
     </row>
-    <row r="19" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5795,7 +6738,7 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="5"/>
     </row>
-    <row r="20" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -5863,7 +6806,7 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="5"/>
     </row>
-    <row r="21" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5931,7 +6874,7 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="5"/>
     </row>
-    <row r="22" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5999,7 +6942,7 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="5"/>
     </row>
-    <row r="23" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6046,7 +6989,7 @@
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
       <c r="AR23" s="12"/>
-      <c r="AS23" s="77" t="s">
+      <c r="AS23" s="41" t="s">
         <v>30</v>
       </c>
       <c r="AT23" s="12"/>
@@ -6071,7 +7014,7 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="5"/>
     </row>
-    <row r="24" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6138,7 +7081,7 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="5"/>
     </row>
-    <row r="25" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -6206,7 +7149,7 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="5"/>
     </row>
-    <row r="26" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6274,7 +7217,7 @@
       <c r="BM26" s="12"/>
       <c r="BN26" s="7"/>
     </row>
-    <row r="27" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -6341,7 +7284,7 @@
       <c r="BL27" s="12"/>
       <c r="BM27" s="12"/>
     </row>
-    <row r="28" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -6410,7 +7353,7 @@
       <c r="BL28" s="12"/>
       <c r="BM28" s="12"/>
     </row>
-    <row r="29" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6477,7 +7420,7 @@
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
     </row>
-    <row r="30" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6544,7 +7487,7 @@
       <c r="BL30" s="12"/>
       <c r="BM30" s="12"/>
     </row>
-    <row r="31" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -6611,7 +7554,7 @@
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
     </row>
-    <row r="32" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="27" t="s">
         <v>12</v>
@@ -6679,7 +7622,7 @@
       <c r="BL32" s="12"/>
       <c r="BM32" s="12"/>
     </row>
-    <row r="33" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="27" t="s">
         <v>13</v>
@@ -6748,7 +7691,7 @@
       <c r="BL33" s="12"/>
       <c r="BM33" s="12"/>
     </row>
-    <row r="34" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -6793,7 +7736,7 @@
       <c r="BL34" s="12"/>
       <c r="BM34" s="12"/>
     </row>
-    <row r="35" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -6838,7 +7781,7 @@
       <c r="BL35" s="12"/>
       <c r="BM35" s="12"/>
     </row>
-    <row r="36" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -6883,7 +7826,7 @@
       <c r="BL36" s="14"/>
       <c r="BM36" s="12"/>
     </row>
-    <row r="37" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -6928,7 +7871,7 @@
       <c r="BL37" s="16"/>
       <c r="BM37" s="12"/>
     </row>
-    <row r="38" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -6995,7 +7938,7 @@
       <c r="BL38" s="12"/>
       <c r="BM38" s="12"/>
     </row>
-    <row r="39" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -7062,7 +8005,7 @@
       <c r="BL39" s="12"/>
       <c r="BM39" s="12"/>
     </row>
-    <row r="40" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -7129,7 +8072,7 @@
       <c r="BL40" s="12"/>
       <c r="BM40" s="12"/>
     </row>
-    <row r="41" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -7196,7 +8139,7 @@
       <c r="BL41" s="12"/>
       <c r="BM41" s="12"/>
     </row>
-    <row r="42" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -7263,141 +8206,141 @@
       <c r="BL42" s="12"/>
       <c r="BM42" s="12"/>
     </row>
-    <row r="43" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
       <c r="AF43" s="12"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="15"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="14"/>
-      <c r="AW43" s="14"/>
-      <c r="AX43" s="14"/>
-      <c r="AY43" s="14"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="14"/>
-      <c r="BB43" s="14"/>
-      <c r="BC43" s="14"/>
-      <c r="BD43" s="14"/>
-      <c r="BE43" s="14"/>
-      <c r="BF43" s="14"/>
-      <c r="BG43" s="14"/>
-      <c r="BH43" s="14"/>
-      <c r="BI43" s="14"/>
-      <c r="BJ43" s="14"/>
-      <c r="BK43" s="14"/>
-      <c r="BL43" s="14"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
       <c r="BM43" s="12"/>
     </row>
-    <row r="44" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
       <c r="AF44" s="12"/>
       <c r="AG44" s="9"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="12"/>
-      <c r="AK44" s="16"/>
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-      <c r="AN44" s="17"/>
-      <c r="AO44" s="17"/>
-      <c r="AP44" s="17"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="16"/>
-      <c r="AS44" s="16"/>
-      <c r="AT44" s="16"/>
-      <c r="AU44" s="16"/>
-      <c r="AV44" s="16"/>
-      <c r="AW44" s="16"/>
-      <c r="AX44" s="16"/>
-      <c r="AY44" s="16"/>
-      <c r="AZ44" s="16"/>
-      <c r="BA44" s="16"/>
-      <c r="BB44" s="16"/>
-      <c r="BC44" s="16"/>
-      <c r="BD44" s="16"/>
-      <c r="BE44" s="16"/>
-      <c r="BF44" s="16"/>
-      <c r="BG44" s="16"/>
-      <c r="BH44" s="16"/>
-      <c r="BI44" s="16"/>
-      <c r="BJ44" s="16"/>
-      <c r="BK44" s="16"/>
-      <c r="BL44" s="16"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BC44" s="14"/>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="14"/>
+      <c r="BJ44" s="14"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
       <c r="BM44" s="12"/>
     </row>
-    <row r="45" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -7434,7 +8377,7 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="12"/>
-      <c r="AK45" s="30"/>
+      <c r="AK45" s="16"/>
       <c r="AL45" s="17"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
@@ -7464,160 +8407,156 @@
       <c r="BL45" s="16"/>
       <c r="BM45" s="12"/>
     </row>
-    <row r="46" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="5"/>
       <c r="AI46" s="12"/>
       <c r="AJ46" s="12"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="12"/>
-      <c r="AO46" s="12"/>
-      <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="12"/>
-      <c r="AT46" s="12"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="12"/>
-      <c r="AW46" s="12"/>
-      <c r="AX46" s="12"/>
-      <c r="AY46" s="12"/>
-      <c r="AZ46" s="12"/>
-      <c r="BA46" s="12"/>
-      <c r="BB46" s="12"/>
-      <c r="BC46" s="12"/>
-      <c r="BD46" s="12"/>
-      <c r="BE46" s="12"/>
-      <c r="BF46" s="12"/>
-      <c r="BG46" s="12"/>
-      <c r="BH46" s="12"/>
-      <c r="BI46" s="12"/>
-      <c r="BJ46" s="12"/>
-      <c r="BK46" s="12"/>
-      <c r="BL46" s="12"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="16"/>
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="16"/>
+      <c r="BI46" s="16"/>
+      <c r="BJ46" s="16"/>
+      <c r="BK46" s="16"/>
+      <c r="BL46" s="16"/>
       <c r="BM46" s="12"/>
     </row>
-    <row r="47" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
-      <c r="AM47" s="7"/>
-      <c r="AN47" s="7"/>
-      <c r="AO47" s="7"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="7"/>
-      <c r="AS47" s="7"/>
-      <c r="AT47" s="7"/>
-      <c r="AU47" s="7"/>
-      <c r="AV47" s="7"/>
-      <c r="AW47" s="7"/>
-      <c r="AX47" s="7"/>
-      <c r="AY47" s="7"/>
-      <c r="AZ47" s="7"/>
-      <c r="BA47" s="7"/>
-      <c r="BB47" s="7"/>
-      <c r="BC47" s="7"/>
-      <c r="BD47" s="7"/>
-      <c r="BE47" s="7"/>
-      <c r="BF47" s="7"/>
-      <c r="BG47" s="7"/>
-      <c r="BH47" s="7"/>
-      <c r="BI47" s="7"/>
-      <c r="BJ47" s="7"/>
-      <c r="BK47" s="7"/>
-      <c r="BL47" s="7"/>
-      <c r="BM47" s="7"/>
-      <c r="BN47" s="7"/>
-    </row>
-    <row r="48" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="78" t="s">
-        <v>31</v>
-      </c>
+    <row r="47" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="16"/>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="16"/>
+      <c r="AV47" s="16"/>
+      <c r="AW47" s="16"/>
+      <c r="AX47" s="16"/>
+      <c r="AY47" s="16"/>
+      <c r="AZ47" s="16"/>
+      <c r="BA47" s="16"/>
+      <c r="BB47" s="16"/>
+      <c r="BC47" s="16"/>
+      <c r="BD47" s="16"/>
+      <c r="BE47" s="16"/>
+      <c r="BF47" s="16"/>
+      <c r="BG47" s="16"/>
+      <c r="BH47" s="16"/>
+      <c r="BI47" s="16"/>
+      <c r="BJ47" s="16"/>
+      <c r="BK47" s="16"/>
+      <c r="BL47" s="16"/>
+      <c r="BM47" s="12"/>
+    </row>
+    <row r="48" spans="1:65" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
@@ -7636,42 +8575,42 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="8"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
-      <c r="AN48" s="7"/>
-      <c r="AO48" s="7"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="7"/>
-      <c r="AR48" s="7"/>
-      <c r="AS48" s="7"/>
-      <c r="AT48" s="7"/>
-      <c r="AU48" s="7"/>
-      <c r="AV48" s="7"/>
-      <c r="AW48" s="7"/>
-      <c r="AX48" s="7"/>
-      <c r="AY48" s="7"/>
-      <c r="AZ48" s="7"/>
-      <c r="BA48" s="7"/>
-      <c r="BB48" s="7"/>
-      <c r="BC48" s="7"/>
-      <c r="BD48" s="7"/>
-      <c r="BE48" s="7"/>
-      <c r="BF48" s="7"/>
-      <c r="BG48" s="7"/>
-      <c r="BH48" s="7"/>
-      <c r="BI48" s="7"/>
-      <c r="BJ48" s="7"/>
-      <c r="BK48" s="7"/>
-      <c r="BL48" s="7"/>
-      <c r="BM48" s="7"/>
-      <c r="BN48" s="7"/>
-    </row>
-    <row r="49" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="7"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+    </row>
+    <row r="49" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7738,9 +8677,11 @@
       <c r="BM49" s="7"/>
       <c r="BN49" s="7"/>
     </row>
-    <row r="50" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="42" t="s">
+        <v>31</v>
+      </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -7806,7 +8747,7 @@
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
     </row>
-    <row r="51" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -7874,7 +8815,7 @@
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
     </row>
-    <row r="52" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -7942,7 +8883,7 @@
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
     </row>
-    <row r="53" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -8010,7 +8951,7 @@
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
     </row>
-    <row r="54" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8078,7 +9019,7 @@
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
     </row>
-    <row r="55" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -8146,7 +9087,7 @@
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
     </row>
-    <row r="56" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -8214,7 +9155,7 @@
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
     </row>
-    <row r="57" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -8282,7 +9223,7 @@
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
     </row>
-    <row r="58" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -8350,7 +9291,7 @@
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
     </row>
-    <row r="59" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -8418,7 +9359,7 @@
       <c r="BM59" s="7"/>
       <c r="BN59" s="7"/>
     </row>
-    <row r="60" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -8486,7 +9427,7 @@
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
     </row>
-    <row r="61" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -8554,7 +9495,7 @@
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
     </row>
-    <row r="62" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -8622,7 +9563,7 @@
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
     </row>
-    <row r="63" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -8690,7 +9631,7 @@
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
     </row>
-    <row r="64" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -8758,7 +9699,7 @@
       <c r="BM64" s="7"/>
       <c r="BN64" s="7"/>
     </row>
-    <row r="65" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -8826,7 +9767,7 @@
       <c r="BM65" s="7"/>
       <c r="BN65" s="7"/>
     </row>
-    <row r="66" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -8862,9 +9803,7 @@
       <c r="AG66" s="8"/>
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
-      <c r="AJ66" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
@@ -8896,7 +9835,7 @@
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
     </row>
-    <row r="67" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -8964,7 +9903,7 @@
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
     </row>
-    <row r="68" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -9000,7 +9939,9 @@
       <c r="AG68" s="8"/>
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
+      <c r="AJ68" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
@@ -9032,7 +9973,7 @@
       <c r="BM68" s="7"/>
       <c r="BN68" s="7"/>
     </row>
-    <row r="69" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -9100,7 +10041,7 @@
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
     </row>
-    <row r="70" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -9168,11 +10109,9 @@
       <c r="BM70" s="7"/>
       <c r="BN70" s="7"/>
     </row>
-    <row r="71" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
-      <c r="B71" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -9238,7 +10177,7 @@
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
     </row>
-    <row r="72" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -9306,9 +10245,11 @@
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
     </row>
-    <row r="73" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -9374,7 +10315,7 @@
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
     </row>
-    <row r="74" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -9442,7 +10383,7 @@
       <c r="BM74" s="7"/>
       <c r="BN74" s="7"/>
     </row>
-    <row r="75" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -9510,7 +10451,7 @@
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
     </row>
-    <row r="76" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -9578,7 +10519,7 @@
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
     </row>
-    <row r="77" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -9646,7 +10587,7 @@
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
     </row>
-    <row r="78" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -9714,7 +10655,7 @@
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
     </row>
-    <row r="79" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -9782,7 +10723,7 @@
       <c r="BM79" s="7"/>
       <c r="BN79" s="7"/>
     </row>
-    <row r="80" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -9850,7 +10791,7 @@
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
     </row>
-    <row r="81" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -9918,7 +10859,7 @@
       <c r="BM81" s="7"/>
       <c r="BN81" s="7"/>
     </row>
-    <row r="82" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -9986,7 +10927,7 @@
       <c r="BM82" s="7"/>
       <c r="BN82" s="7"/>
     </row>
-    <row r="83" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -10054,7 +10995,7 @@
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
     </row>
-    <row r="84" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -10122,7 +11063,7 @@
       <c r="BM84" s="7"/>
       <c r="BN84" s="7"/>
     </row>
-    <row r="85" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -10190,7 +11131,7 @@
       <c r="BM85" s="7"/>
       <c r="BN85" s="7"/>
     </row>
-    <row r="86" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -10258,7 +11199,7 @@
       <c r="BM86" s="7"/>
       <c r="BN86" s="7"/>
     </row>
-    <row r="87" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -10326,7 +11267,7 @@
       <c r="BM87" s="7"/>
       <c r="BN87" s="7"/>
     </row>
-    <row r="88" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -10394,7 +11335,7 @@
       <c r="BM88" s="7"/>
       <c r="BN88" s="7"/>
     </row>
-    <row r="89" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -10462,7 +11403,7 @@
       <c r="BM89" s="7"/>
       <c r="BN89" s="7"/>
     </row>
-    <row r="90" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -10530,7 +11471,7 @@
       <c r="BM90" s="7"/>
       <c r="BN90" s="7"/>
     </row>
-    <row r="91" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -10598,7 +11539,7 @@
       <c r="BM91" s="7"/>
       <c r="BN91" s="7"/>
     </row>
-    <row r="92" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -10666,7 +11607,7 @@
       <c r="BM92" s="7"/>
       <c r="BN92" s="7"/>
     </row>
-    <row r="93" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -10701,11 +11642,9 @@
       <c r="AF93" s="7"/>
       <c r="AG93" s="8"/>
       <c r="AH93" s="7"/>
-      <c r="AI93" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ93" s="75"/>
-      <c r="AK93" s="27"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
       <c r="AL93" s="7"/>
       <c r="AM93" s="7"/>
       <c r="AN93" s="7"/>
@@ -10736,11 +11675,14 @@
       <c r="BM93" s="7"/>
       <c r="BN93" s="7"/>
     </row>
-    <row r="94" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
-      <c r="B94" s="79" t="s">
-        <v>43</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -10768,11 +11710,9 @@
       <c r="AF94" s="7"/>
       <c r="AG94" s="8"/>
       <c r="AH94" s="7"/>
-      <c r="AI94" s="20"/>
-      <c r="AJ94" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK94" s="12"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="7"/>
+      <c r="AK94" s="7"/>
       <c r="AL94" s="7"/>
       <c r="AM94" s="7"/>
       <c r="AN94" s="7"/>
@@ -10803,14 +11743,10 @@
       <c r="BM94" s="7"/>
       <c r="BN94" s="7"/>
     </row>
-    <row r="95" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -10875,20 +11811,16 @@
       <c r="BM95" s="7"/>
       <c r="BN95" s="7"/>
     </row>
-    <row r="96" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
-      <c r="C96" t="s">
-        <v>36</v>
-      </c>
+      <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="80" t="s">
-        <v>37</v>
-      </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -10947,7 +11879,7 @@
       <c r="BM96" s="7"/>
       <c r="BN96" s="7"/>
     </row>
-    <row r="97" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -10982,9 +11914,11 @@
       <c r="AF97" s="7"/>
       <c r="AG97" s="8"/>
       <c r="AH97" s="7"/>
-      <c r="AI97" s="7"/>
-      <c r="AJ97" s="7"/>
-      <c r="AK97" s="7"/>
+      <c r="AI97" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ97" s="39"/>
+      <c r="AK97" s="27"/>
       <c r="AL97" s="7"/>
       <c r="AM97" s="7"/>
       <c r="AN97" s="7"/>
@@ -11015,14 +11949,11 @@
       <c r="BM97" s="7"/>
       <c r="BN97" s="7"/>
     </row>
-    <row r="98" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
+      <c r="B98" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -11050,9 +11981,11 @@
       <c r="AF98" s="7"/>
       <c r="AG98" s="8"/>
       <c r="AH98" s="7"/>
-      <c r="AI98" s="7"/>
-      <c r="AJ98" s="7"/>
-      <c r="AK98" s="7"/>
+      <c r="AI98" s="20"/>
+      <c r="AJ98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK98" s="12"/>
       <c r="AL98" s="7"/>
       <c r="AM98" s="7"/>
       <c r="AN98" s="7"/>
@@ -11083,10 +12016,14 @@
       <c r="BM98" s="7"/>
       <c r="BN98" s="7"/>
     </row>
-    <row r="99" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -11151,16 +12088,20 @@
       <c r="BM99" s="7"/>
       <c r="BN99" s="7"/>
     </row>
-    <row r="100" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -11219,7 +12160,7 @@
       <c r="BM100" s="7"/>
       <c r="BN100" s="7"/>
     </row>
-    <row r="101" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -11287,7 +12228,7 @@
       <c r="BM101" s="7"/>
       <c r="BN101" s="7"/>
     </row>
-    <row r="102" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -11355,7 +12296,7 @@
       <c r="BM102" s="7"/>
       <c r="BN102" s="7"/>
     </row>
-    <row r="103" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -11423,7 +12364,7 @@
       <c r="BM103" s="7"/>
       <c r="BN103" s="7"/>
     </row>
-    <row r="104" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -11491,7 +12432,7 @@
       <c r="BM104" s="7"/>
       <c r="BN104" s="7"/>
     </row>
-    <row r="105" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -11559,7 +12500,7 @@
       <c r="BM105" s="7"/>
       <c r="BN105" s="7"/>
     </row>
-    <row r="106" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -11627,7 +12568,7 @@
       <c r="BM106" s="7"/>
       <c r="BN106" s="7"/>
     </row>
-    <row r="107" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -11695,7 +12636,7 @@
       <c r="BM107" s="7"/>
       <c r="BN107" s="7"/>
     </row>
-    <row r="108" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -11763,7 +12704,7 @@
       <c r="BM108" s="7"/>
       <c r="BN108" s="7"/>
     </row>
-    <row r="109" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -11831,7 +12772,7 @@
       <c r="BM109" s="7"/>
       <c r="BN109" s="7"/>
     </row>
-    <row r="110" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -11899,7 +12840,7 @@
       <c r="BM110" s="7"/>
       <c r="BN110" s="7"/>
     </row>
-    <row r="111" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -11967,7 +12908,7 @@
       <c r="BM111" s="7"/>
       <c r="BN111" s="7"/>
     </row>
-    <row r="112" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -12035,7 +12976,7 @@
       <c r="BM112" s="7"/>
       <c r="BN112" s="7"/>
     </row>
-    <row r="113" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -12103,7 +13044,7 @@
       <c r="BM113" s="7"/>
       <c r="BN113" s="7"/>
     </row>
-    <row r="114" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -12171,7 +13112,7 @@
       <c r="BM114" s="7"/>
       <c r="BN114" s="7"/>
     </row>
-    <row r="115" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -12179,9 +13120,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -12241,7 +13180,7 @@
       <c r="BM115" s="7"/>
       <c r="BN115" s="7"/>
     </row>
-    <row r="116" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -12276,25 +13215,23 @@
       <c r="AF116" s="7"/>
       <c r="AG116" s="8"/>
       <c r="AH116" s="7"/>
-      <c r="AI116" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ116" s="12"/>
-      <c r="AK116" s="12"/>
-      <c r="AL116" s="22"/>
-      <c r="AM116" s="12"/>
-      <c r="AN116" s="12"/>
-      <c r="AO116" s="12"/>
-      <c r="AP116" s="12"/>
-      <c r="AQ116" s="12"/>
-      <c r="AR116" s="12"/>
-      <c r="AS116" s="12"/>
-      <c r="AT116" s="12"/>
-      <c r="AU116" s="12"/>
-      <c r="AV116" s="12"/>
-      <c r="AW116" s="12"/>
-      <c r="AX116" s="12"/>
-      <c r="AY116" s="16"/>
+      <c r="AI116" s="7"/>
+      <c r="AJ116" s="7"/>
+      <c r="AK116" s="7"/>
+      <c r="AL116" s="7"/>
+      <c r="AM116" s="7"/>
+      <c r="AN116" s="7"/>
+      <c r="AO116" s="7"/>
+      <c r="AP116" s="7"/>
+      <c r="AQ116" s="7"/>
+      <c r="AR116" s="7"/>
+      <c r="AS116" s="7"/>
+      <c r="AT116" s="7"/>
+      <c r="AU116" s="7"/>
+      <c r="AV116" s="7"/>
+      <c r="AW116" s="7"/>
+      <c r="AX116" s="7"/>
+      <c r="AY116" s="7"/>
       <c r="AZ116" s="7"/>
       <c r="BA116" s="7"/>
       <c r="BB116" s="7"/>
@@ -12311,7 +13248,7 @@
       <c r="BM116" s="7"/>
       <c r="BN116" s="7"/>
     </row>
-    <row r="117" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -12346,25 +13283,23 @@
       <c r="AF117" s="7"/>
       <c r="AG117" s="8"/>
       <c r="AH117" s="7"/>
-      <c r="AI117" s="12"/>
-      <c r="AJ117" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK117" s="12"/>
-      <c r="AL117" s="12"/>
-      <c r="AM117" s="12"/>
-      <c r="AN117" s="12"/>
-      <c r="AO117" s="27"/>
-      <c r="AP117" s="12"/>
-      <c r="AQ117" s="12"/>
-      <c r="AR117" s="12"/>
-      <c r="AS117" s="12"/>
-      <c r="AT117" s="12"/>
-      <c r="AU117" s="12"/>
-      <c r="AV117" s="12"/>
-      <c r="AW117" s="12"/>
-      <c r="AX117" s="12"/>
-      <c r="AY117" s="16"/>
+      <c r="AI117" s="7"/>
+      <c r="AJ117" s="7"/>
+      <c r="AK117" s="7"/>
+      <c r="AL117" s="7"/>
+      <c r="AM117" s="7"/>
+      <c r="AN117" s="7"/>
+      <c r="AO117" s="7"/>
+      <c r="AP117" s="7"/>
+      <c r="AQ117" s="7"/>
+      <c r="AR117" s="7"/>
+      <c r="AS117" s="7"/>
+      <c r="AT117" s="7"/>
+      <c r="AU117" s="7"/>
+      <c r="AV117" s="7"/>
+      <c r="AW117" s="7"/>
+      <c r="AX117" s="7"/>
+      <c r="AY117" s="7"/>
       <c r="AZ117" s="7"/>
       <c r="BA117" s="7"/>
       <c r="BB117" s="7"/>
@@ -12381,7 +13316,7 @@
       <c r="BM117" s="7"/>
       <c r="BN117" s="7"/>
     </row>
-    <row r="118" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -12416,25 +13351,23 @@
       <c r="AF118" s="7"/>
       <c r="AG118" s="8"/>
       <c r="AH118" s="7"/>
-      <c r="AI118" s="12"/>
-      <c r="AJ118" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK118" s="12"/>
-      <c r="AL118" s="12"/>
-      <c r="AM118" s="12"/>
-      <c r="AN118" s="12"/>
-      <c r="AO118" s="12"/>
-      <c r="AP118" s="12"/>
-      <c r="AQ118" s="12"/>
-      <c r="AR118" s="12"/>
-      <c r="AS118" s="12"/>
-      <c r="AT118" s="12"/>
-      <c r="AU118" s="12"/>
-      <c r="AV118" s="12"/>
-      <c r="AW118" s="12"/>
-      <c r="AX118" s="12"/>
-      <c r="AY118" s="12"/>
+      <c r="AI118" s="7"/>
+      <c r="AJ118" s="7"/>
+      <c r="AK118" s="7"/>
+      <c r="AL118" s="7"/>
+      <c r="AM118" s="7"/>
+      <c r="AN118" s="7"/>
+      <c r="AO118" s="7"/>
+      <c r="AP118" s="7"/>
+      <c r="AQ118" s="7"/>
+      <c r="AR118" s="7"/>
+      <c r="AS118" s="7"/>
+      <c r="AT118" s="7"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="7"/>
+      <c r="AW118" s="7"/>
+      <c r="AX118" s="7"/>
+      <c r="AY118" s="7"/>
       <c r="AZ118" s="7"/>
       <c r="BA118" s="7"/>
       <c r="BB118" s="7"/>
@@ -12451,7 +13384,7 @@
       <c r="BM118" s="7"/>
       <c r="BN118" s="7"/>
     </row>
-    <row r="119" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -12459,7 +13392,9 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="H119" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -12486,23 +13421,23 @@
       <c r="AF119" s="7"/>
       <c r="AG119" s="8"/>
       <c r="AH119" s="7"/>
-      <c r="AI119" s="12"/>
-      <c r="AJ119" s="12"/>
-      <c r="AK119" s="12"/>
-      <c r="AL119" s="12"/>
-      <c r="AM119" s="12"/>
-      <c r="AN119" s="12"/>
-      <c r="AO119" s="12"/>
-      <c r="AP119" s="12"/>
-      <c r="AQ119" s="12"/>
-      <c r="AR119" s="12"/>
-      <c r="AS119" s="12"/>
-      <c r="AT119" s="12"/>
-      <c r="AU119" s="12"/>
-      <c r="AV119" s="12"/>
-      <c r="AW119" s="12"/>
-      <c r="AX119" s="12"/>
-      <c r="AY119" s="27"/>
+      <c r="AI119" s="7"/>
+      <c r="AJ119" s="7"/>
+      <c r="AK119" s="7"/>
+      <c r="AL119" s="7"/>
+      <c r="AM119" s="7"/>
+      <c r="AN119" s="7"/>
+      <c r="AO119" s="7"/>
+      <c r="AP119" s="7"/>
+      <c r="AQ119" s="7"/>
+      <c r="AR119" s="7"/>
+      <c r="AS119" s="7"/>
+      <c r="AT119" s="7"/>
+      <c r="AU119" s="7"/>
+      <c r="AV119" s="7"/>
+      <c r="AW119" s="7"/>
+      <c r="AX119" s="7"/>
+      <c r="AY119" s="7"/>
       <c r="AZ119" s="7"/>
       <c r="BA119" s="7"/>
       <c r="BB119" s="7"/>
@@ -12519,7 +13454,7 @@
       <c r="BM119" s="7"/>
       <c r="BN119" s="7"/>
     </row>
-    <row r="120" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -12554,25 +13489,25 @@
       <c r="AF120" s="7"/>
       <c r="AG120" s="8"/>
       <c r="AH120" s="7"/>
-      <c r="AI120" s="2" t="s">
-        <v>38</v>
+      <c r="AI120" s="38" t="s">
+        <v>19</v>
       </c>
-      <c r="AJ120" s="7"/>
-      <c r="AK120" s="7"/>
-      <c r="AL120" s="7"/>
-      <c r="AM120" s="7"/>
-      <c r="AN120" s="7"/>
-      <c r="AO120" s="7"/>
-      <c r="AP120" s="7"/>
-      <c r="AQ120" s="7"/>
-      <c r="AR120" s="7"/>
-      <c r="AS120" s="7"/>
-      <c r="AT120" s="7"/>
-      <c r="AU120" s="7"/>
-      <c r="AV120" s="7"/>
-      <c r="AW120" s="7"/>
-      <c r="AX120" s="7"/>
-      <c r="AY120" s="7"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="22"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="12"/>
+      <c r="AO120" s="12"/>
+      <c r="AP120" s="12"/>
+      <c r="AQ120" s="12"/>
+      <c r="AR120" s="12"/>
+      <c r="AS120" s="12"/>
+      <c r="AT120" s="12"/>
+      <c r="AU120" s="12"/>
+      <c r="AV120" s="12"/>
+      <c r="AW120" s="12"/>
+      <c r="AX120" s="12"/>
+      <c r="AY120" s="16"/>
       <c r="AZ120" s="7"/>
       <c r="BA120" s="7"/>
       <c r="BB120" s="7"/>
@@ -12589,7 +13524,7 @@
       <c r="BM120" s="7"/>
       <c r="BN120" s="7"/>
     </row>
-    <row r="121" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -12624,25 +13559,25 @@
       <c r="AF121" s="7"/>
       <c r="AG121" s="8"/>
       <c r="AH121" s="7"/>
-      <c r="AI121" s="2" t="s">
-        <v>42</v>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="27" t="s">
+        <v>20</v>
       </c>
-      <c r="AJ121" s="7"/>
-      <c r="AK121" s="7"/>
-      <c r="AL121" s="7"/>
-      <c r="AM121" s="7"/>
-      <c r="AN121" s="7"/>
-      <c r="AO121" s="7"/>
-      <c r="AP121" s="7"/>
-      <c r="AQ121" s="7"/>
-      <c r="AR121" s="7"/>
-      <c r="AS121" s="7"/>
-      <c r="AT121" s="7"/>
-      <c r="AU121" s="7"/>
-      <c r="AV121" s="7"/>
-      <c r="AW121" s="7"/>
-      <c r="AX121" s="7"/>
-      <c r="AY121" s="7"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+      <c r="AM121" s="12"/>
+      <c r="AN121" s="12"/>
+      <c r="AO121" s="27"/>
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12"/>
+      <c r="AR121" s="12"/>
+      <c r="AS121" s="12"/>
+      <c r="AT121" s="12"/>
+      <c r="AU121" s="12"/>
+      <c r="AV121" s="12"/>
+      <c r="AW121" s="12"/>
+      <c r="AX121" s="12"/>
+      <c r="AY121" s="16"/>
       <c r="AZ121" s="7"/>
       <c r="BA121" s="7"/>
       <c r="BB121" s="7"/>
@@ -12659,7 +13594,7 @@
       <c r="BM121" s="7"/>
       <c r="BN121" s="7"/>
     </row>
-    <row r="122" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -12694,23 +13629,25 @@
       <c r="AF122" s="7"/>
       <c r="AG122" s="8"/>
       <c r="AH122" s="7"/>
-      <c r="AI122" s="7"/>
-      <c r="AJ122" s="7"/>
-      <c r="AK122" s="7"/>
-      <c r="AL122" s="7"/>
-      <c r="AM122" s="7"/>
-      <c r="AN122" s="7"/>
-      <c r="AO122" s="7"/>
-      <c r="AP122" s="7"/>
-      <c r="AQ122" s="7"/>
-      <c r="AR122" s="7"/>
-      <c r="AS122" s="7"/>
-      <c r="AT122" s="7"/>
-      <c r="AU122" s="7"/>
-      <c r="AV122" s="7"/>
-      <c r="AW122" s="7"/>
-      <c r="AX122" s="7"/>
-      <c r="AY122" s="7"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+      <c r="AO122" s="12"/>
+      <c r="AP122" s="12"/>
+      <c r="AQ122" s="12"/>
+      <c r="AR122" s="12"/>
+      <c r="AS122" s="12"/>
+      <c r="AT122" s="12"/>
+      <c r="AU122" s="12"/>
+      <c r="AV122" s="12"/>
+      <c r="AW122" s="12"/>
+      <c r="AX122" s="12"/>
+      <c r="AY122" s="12"/>
       <c r="AZ122" s="7"/>
       <c r="BA122" s="7"/>
       <c r="BB122" s="7"/>
@@ -12727,7 +13664,7 @@
       <c r="BM122" s="7"/>
       <c r="BN122" s="7"/>
     </row>
-    <row r="123" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -12735,9 +13672,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="35" t="s">
-        <v>15</v>
-      </c>
+      <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -12764,23 +13699,23 @@
       <c r="AF123" s="7"/>
       <c r="AG123" s="8"/>
       <c r="AH123" s="7"/>
-      <c r="AI123" s="7"/>
-      <c r="AJ123" s="7"/>
-      <c r="AK123" s="7"/>
-      <c r="AL123" s="7"/>
-      <c r="AM123" s="7"/>
-      <c r="AN123" s="7"/>
-      <c r="AO123" s="7"/>
-      <c r="AP123" s="7"/>
-      <c r="AQ123" s="7"/>
-      <c r="AR123" s="7"/>
-      <c r="AS123" s="7"/>
-      <c r="AT123" s="7"/>
-      <c r="AU123" s="7"/>
-      <c r="AV123" s="7"/>
-      <c r="AW123" s="7"/>
-      <c r="AX123" s="7"/>
-      <c r="AY123" s="7"/>
+      <c r="AI123" s="12"/>
+      <c r="AJ123" s="12"/>
+      <c r="AK123" s="12"/>
+      <c r="AL123" s="12"/>
+      <c r="AM123" s="12"/>
+      <c r="AN123" s="12"/>
+      <c r="AO123" s="12"/>
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
+      <c r="AT123" s="12"/>
+      <c r="AU123" s="12"/>
+      <c r="AV123" s="12"/>
+      <c r="AW123" s="12"/>
+      <c r="AX123" s="12"/>
+      <c r="AY123" s="27"/>
       <c r="AZ123" s="7"/>
       <c r="BA123" s="7"/>
       <c r="BB123" s="7"/>
@@ -12797,7 +13732,7 @@
       <c r="BM123" s="7"/>
       <c r="BN123" s="7"/>
     </row>
-    <row r="124" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -12832,7 +13767,9 @@
       <c r="AF124" s="7"/>
       <c r="AG124" s="8"/>
       <c r="AH124" s="7"/>
-      <c r="AI124" s="7"/>
+      <c r="AI124" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="AJ124" s="7"/>
       <c r="AK124" s="7"/>
       <c r="AL124" s="7"/>
@@ -12865,33 +13802,30 @@
       <c r="BM124" s="7"/>
       <c r="BN124" s="7"/>
     </row>
-    <row r="125" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
-      <c r="B125" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="37"/>
-      <c r="Q125" s="37"/>
-      <c r="R125" s="37"/>
-      <c r="S125" s="37"/>
-      <c r="T125" s="37"/>
-      <c r="U125" s="37"/>
-      <c r="V125" s="37"/>
-      <c r="W125" s="12"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
@@ -12903,7 +13837,9 @@
       <c r="AF125" s="7"/>
       <c r="AG125" s="8"/>
       <c r="AH125" s="7"/>
-      <c r="AI125" s="7"/>
+      <c r="AI125" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ125" s="7"/>
       <c r="AK125" s="7"/>
       <c r="AL125" s="7"/>
@@ -12936,30 +13872,30 @@
       <c r="BM125" s="7"/>
       <c r="BN125" s="7"/>
     </row>
-    <row r="126" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
-      <c r="B126" s="32"/>
-      <c r="D126" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="32"/>
-      <c r="K126" s="32"/>
-      <c r="L126" s="32"/>
-      <c r="M126" s="32"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="32"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="37"/>
-      <c r="T126" s="37"/>
-      <c r="U126" s="37"/>
-      <c r="V126" s="37"/>
-      <c r="W126" s="12"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
@@ -13004,29 +13940,32 @@
       <c r="BM126" s="7"/>
       <c r="BN126" s="7"/>
     </row>
-    <row r="127" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="32"/>
-      <c r="M127" s="32"/>
-      <c r="N127" s="32"/>
-      <c r="O127" s="32"/>
-      <c r="P127" s="32"/>
-      <c r="Q127" s="32"/>
-      <c r="R127" s="32"/>
-      <c r="S127" s="32"/>
-      <c r="T127" s="32"/>
-      <c r="U127" s="32"/>
-      <c r="V127" s="32"/>
-      <c r="W127" s="14"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
@@ -13071,30 +14010,30 @@
       <c r="BM127" s="7"/>
       <c r="BN127" s="7"/>
     </row>
-    <row r="128" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="29"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
@@ -13139,30 +14078,33 @@
       <c r="BM128" s="7"/>
       <c r="BN128" s="7"/>
     </row>
-    <row r="129" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
+      <c r="B129" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
+      <c r="W129" s="12"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
@@ -13207,30 +14149,30 @@
       <c r="BM129" s="7"/>
       <c r="BN129" s="7"/>
     </row>
-    <row r="130" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="7"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="7"/>
-      <c r="W130" s="7"/>
+      <c r="B130" s="32"/>
+      <c r="D130" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="37"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="37"/>
+      <c r="V130" s="37"/>
+      <c r="W130" s="12"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
@@ -13275,30 +14217,29 @@
       <c r="BM130" s="7"/>
       <c r="BN130" s="7"/>
     </row>
-    <row r="131" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="7"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
+      <c r="L131" s="32"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
+      <c r="P131" s="32"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="32"/>
+      <c r="S131" s="32"/>
+      <c r="T131" s="32"/>
+      <c r="U131" s="32"/>
+      <c r="V131" s="32"/>
+      <c r="W131" s="14"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
@@ -13343,30 +14284,30 @@
       <c r="BM131" s="7"/>
       <c r="BN131" s="7"/>
     </row>
-    <row r="132" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
-      <c r="T132" s="7"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+      <c r="R132" s="16"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="16"/>
+      <c r="U132" s="16"/>
+      <c r="V132" s="16"/>
+      <c r="W132" s="16"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
@@ -13411,7 +14352,7 @@
       <c r="BM132" s="7"/>
       <c r="BN132" s="7"/>
     </row>
-    <row r="133" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -13479,7 +14420,7 @@
       <c r="BM133" s="7"/>
       <c r="BN133" s="7"/>
     </row>
-    <row r="134" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -13547,7 +14488,7 @@
       <c r="BM134" s="7"/>
       <c r="BN134" s="7"/>
     </row>
-    <row r="135" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -13615,7 +14556,7 @@
       <c r="BM135" s="7"/>
       <c r="BN135" s="7"/>
     </row>
-    <row r="136" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -13683,7 +14624,7 @@
       <c r="BM136" s="7"/>
       <c r="BN136" s="7"/>
     </row>
-    <row r="137" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -13751,7 +14692,7 @@
       <c r="BM137" s="7"/>
       <c r="BN137" s="7"/>
     </row>
-    <row r="138" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -13819,11 +14760,9 @@
       <c r="BM138" s="7"/>
       <c r="BN138" s="7"/>
     </row>
-    <row r="139" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
-      <c r="B139" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -13889,7 +14828,7 @@
       <c r="BM139" s="7"/>
       <c r="BN139" s="7"/>
     </row>
-    <row r="140" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -13924,9 +14863,7 @@
       <c r="AF140" s="7"/>
       <c r="AG140" s="8"/>
       <c r="AH140" s="7"/>
-      <c r="AI140" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="AI140" s="7"/>
       <c r="AJ140" s="7"/>
       <c r="AK140" s="7"/>
       <c r="AL140" s="7"/>
@@ -13959,7 +14896,7 @@
       <c r="BM140" s="7"/>
       <c r="BN140" s="7"/>
     </row>
-    <row r="141" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -14027,7 +14964,7 @@
       <c r="BM141" s="7"/>
       <c r="BN141" s="7"/>
     </row>
-    <row r="142" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -14095,7 +15032,7 @@
       <c r="BM142" s="7"/>
       <c r="BN142" s="7"/>
     </row>
-    <row r="143" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -14163,9 +15100,8 @@
       <c r="BM143" s="7"/>
       <c r="BN143" s="7"/>
     </row>
-    <row r="144" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -14231,9 +15167,11 @@
       <c r="BM144" s="7"/>
       <c r="BN144" s="7"/>
     </row>
-    <row r="145" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -14266,7 +15204,9 @@
       <c r="AF145" s="7"/>
       <c r="AG145" s="8"/>
       <c r="AH145" s="7"/>
-      <c r="AI145" s="7"/>
+      <c r="AI145" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="AJ145" s="7"/>
       <c r="AK145" s="7"/>
       <c r="AL145" s="7"/>
@@ -14299,7 +15239,7 @@
       <c r="BM145" s="7"/>
       <c r="BN145" s="7"/>
     </row>
-    <row r="146" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -14367,7 +15307,7 @@
       <c r="BM146" s="7"/>
       <c r="BN146" s="7"/>
     </row>
-    <row r="147" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -14435,7 +15375,7 @@
       <c r="BM147" s="7"/>
       <c r="BN147" s="7"/>
     </row>
-    <row r="148" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -14503,7 +15443,7 @@
       <c r="BM148" s="7"/>
       <c r="BN148" s="7"/>
     </row>
-    <row r="149" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -14571,7 +15511,7 @@
       <c r="BM149" s="7"/>
       <c r="BN149" s="7"/>
     </row>
-    <row r="150" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -14639,7 +15579,7 @@
       <c r="BM150" s="7"/>
       <c r="BN150" s="7"/>
     </row>
-    <row r="151" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -14707,7 +15647,7 @@
       <c r="BM151" s="7"/>
       <c r="BN151" s="7"/>
     </row>
-    <row r="152" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -14775,7 +15715,7 @@
       <c r="BM152" s="7"/>
       <c r="BN152" s="7"/>
     </row>
-    <row r="153" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -14843,7 +15783,7 @@
       <c r="BM153" s="7"/>
       <c r="BN153" s="7"/>
     </row>
-    <row r="154" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -14911,7 +15851,7 @@
       <c r="BM154" s="7"/>
       <c r="BN154" s="7"/>
     </row>
-    <row r="155" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -14979,7 +15919,7 @@
       <c r="BM155" s="7"/>
       <c r="BN155" s="7"/>
     </row>
-    <row r="156" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -15014,9 +15954,7 @@
       <c r="AF156" s="7"/>
       <c r="AG156" s="8"/>
       <c r="AH156" s="7"/>
-      <c r="AI156" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="AI156" s="7"/>
       <c r="AJ156" s="7"/>
       <c r="AK156" s="7"/>
       <c r="AL156" s="7"/>
@@ -15049,7 +15987,7 @@
       <c r="BM156" s="7"/>
       <c r="BN156" s="7"/>
     </row>
-    <row r="157" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -15117,7 +16055,7 @@
       <c r="BM157" s="7"/>
       <c r="BN157" s="7"/>
     </row>
-    <row r="158" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -15185,7 +16123,7 @@
       <c r="BM158" s="7"/>
       <c r="BN158" s="7"/>
     </row>
-    <row r="159" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -15220,9 +16158,7 @@
       <c r="AF159" s="7"/>
       <c r="AG159" s="8"/>
       <c r="AH159" s="7"/>
-      <c r="AI159" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="AI159" s="7"/>
       <c r="AJ159" s="7"/>
       <c r="AK159" s="7"/>
       <c r="AL159" s="7"/>
@@ -15255,7 +16191,7 @@
       <c r="BM159" s="7"/>
       <c r="BN159" s="7"/>
     </row>
-    <row r="160" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -15323,7 +16259,7 @@
       <c r="BM160" s="7"/>
       <c r="BN160" s="7"/>
     </row>
-    <row r="161" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -15358,7 +16294,9 @@
       <c r="AF161" s="7"/>
       <c r="AG161" s="8"/>
       <c r="AH161" s="7"/>
-      <c r="AI161" s="7"/>
+      <c r="AI161" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ161" s="7"/>
       <c r="AK161" s="7"/>
       <c r="AL161" s="7"/>
@@ -15391,7 +16329,7 @@
       <c r="BM161" s="7"/>
       <c r="BN161" s="7"/>
     </row>
-    <row r="162" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -15426,6 +16364,8 @@
       <c r="AF162" s="7"/>
       <c r="AG162" s="8"/>
       <c r="AH162" s="7"/>
+      <c r="AI162" s="7"/>
+      <c r="AJ162" s="7"/>
       <c r="AK162" s="7"/>
       <c r="AL162" s="7"/>
       <c r="AM162" s="7"/>
@@ -15457,7 +16397,7 @@
       <c r="BM162" s="7"/>
       <c r="BN162" s="7"/>
     </row>
-    <row r="163" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -15525,7 +16465,7 @@
       <c r="BM163" s="7"/>
       <c r="BN163" s="7"/>
     </row>
-    <row r="164" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -15560,7 +16500,9 @@
       <c r="AF164" s="7"/>
       <c r="AG164" s="8"/>
       <c r="AH164" s="7"/>
-      <c r="AI164" s="7"/>
+      <c r="AI164" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="AJ164" s="7"/>
       <c r="AK164" s="7"/>
       <c r="AL164" s="7"/>
@@ -15593,7 +16535,7 @@
       <c r="BM164" s="7"/>
       <c r="BN164" s="7"/>
     </row>
-    <row r="165" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -15661,7 +16603,7 @@
       <c r="BM165" s="7"/>
       <c r="BN165" s="7"/>
     </row>
-    <row r="166" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -15729,7 +16671,7 @@
       <c r="BM166" s="7"/>
       <c r="BN166" s="7"/>
     </row>
-    <row r="167" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -15764,8 +16706,6 @@
       <c r="AF167" s="7"/>
       <c r="AG167" s="8"/>
       <c r="AH167" s="7"/>
-      <c r="AI167" s="7"/>
-      <c r="AJ167" s="7"/>
       <c r="AK167" s="7"/>
       <c r="AL167" s="7"/>
       <c r="AM167" s="7"/>
@@ -15797,7 +16737,7 @@
       <c r="BM167" s="7"/>
       <c r="BN167" s="7"/>
     </row>
-    <row r="168" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -15865,7 +16805,7 @@
       <c r="BM168" s="7"/>
       <c r="BN168" s="7"/>
     </row>
-    <row r="169" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -15933,7 +16873,7 @@
       <c r="BM169" s="7"/>
       <c r="BN169" s="7"/>
     </row>
-    <row r="170" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -16001,7 +16941,7 @@
       <c r="BM170" s="7"/>
       <c r="BN170" s="7"/>
     </row>
-    <row r="171" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -16069,7 +17009,7 @@
       <c r="BM171" s="7"/>
       <c r="BN171" s="7"/>
     </row>
-    <row r="172" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -16104,9 +17044,7 @@
       <c r="AF172" s="7"/>
       <c r="AG172" s="8"/>
       <c r="AH172" s="7"/>
-      <c r="AI172" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="AI172" s="7"/>
       <c r="AJ172" s="7"/>
       <c r="AK172" s="7"/>
       <c r="AL172" s="7"/>
@@ -16139,7 +17077,7 @@
       <c r="BM172" s="7"/>
       <c r="BN172" s="7"/>
     </row>
-    <row r="173" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -16174,6 +17112,7 @@
       <c r="AF173" s="7"/>
       <c r="AG173" s="8"/>
       <c r="AH173" s="7"/>
+      <c r="AI173" s="7"/>
       <c r="AJ173" s="7"/>
       <c r="AK173" s="7"/>
       <c r="AL173" s="7"/>
@@ -16206,7 +17145,7 @@
       <c r="BM173" s="7"/>
       <c r="BN173" s="7"/>
     </row>
-    <row r="174" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -16274,7 +17213,7 @@
       <c r="BM174" s="7"/>
       <c r="BN174" s="7"/>
     </row>
-    <row r="175" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -16342,7 +17281,7 @@
       <c r="BM175" s="7"/>
       <c r="BN175" s="7"/>
     </row>
-    <row r="176" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -16410,7 +17349,7 @@
       <c r="BM176" s="7"/>
       <c r="BN176" s="7"/>
     </row>
-    <row r="177" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -16445,6 +17384,9 @@
       <c r="AF177" s="7"/>
       <c r="AG177" s="8"/>
       <c r="AH177" s="7"/>
+      <c r="AI177" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="AJ177" s="7"/>
       <c r="AK177" s="7"/>
       <c r="AL177" s="7"/>
@@ -16477,7 +17419,7 @@
       <c r="BM177" s="7"/>
       <c r="BN177" s="7"/>
     </row>
-    <row r="178" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -16512,7 +17454,6 @@
       <c r="AF178" s="7"/>
       <c r="AG178" s="8"/>
       <c r="AH178" s="7"/>
-      <c r="AI178" s="7"/>
       <c r="AJ178" s="7"/>
       <c r="AK178" s="7"/>
       <c r="AL178" s="7"/>
@@ -16545,7 +17486,7 @@
       <c r="BM178" s="7"/>
       <c r="BN178" s="7"/>
     </row>
-    <row r="179" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -16613,12 +17554,10 @@
       <c r="BM179" s="7"/>
       <c r="BN179" s="7"/>
     </row>
-    <row r="180" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -16683,12 +17622,10 @@
       <c r="BM180" s="7"/>
       <c r="BN180" s="7"/>
     </row>
-    <row r="181" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -16753,7 +17690,7 @@
       <c r="BM181" s="7"/>
       <c r="BN181" s="7"/>
     </row>
-    <row r="182" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -16788,7 +17725,6 @@
       <c r="AF182" s="7"/>
       <c r="AG182" s="8"/>
       <c r="AH182" s="7"/>
-      <c r="AI182" s="7"/>
       <c r="AJ182" s="7"/>
       <c r="AK182" s="7"/>
       <c r="AL182" s="7"/>
@@ -16821,7 +17757,7 @@
       <c r="BM182" s="7"/>
       <c r="BN182" s="7"/>
     </row>
-    <row r="183" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -16889,7 +17825,7 @@
       <c r="BM183" s="7"/>
       <c r="BN183" s="7"/>
     </row>
-    <row r="184" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -16957,10 +17893,12 @@
       <c r="BM184" s="7"/>
       <c r="BN184" s="7"/>
     </row>
-    <row r="185" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
+      <c r="C185" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -17025,10 +17963,12 @@
       <c r="BM185" s="7"/>
       <c r="BN185" s="7"/>
     </row>
-    <row r="186" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -17093,7 +18033,7 @@
       <c r="BM186" s="7"/>
       <c r="BN186" s="7"/>
     </row>
-    <row r="187" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -17161,7 +18101,7 @@
       <c r="BM187" s="7"/>
       <c r="BN187" s="7"/>
     </row>
-    <row r="188" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -17229,7 +18169,7 @@
       <c r="BM188" s="7"/>
       <c r="BN188" s="7"/>
     </row>
-    <row r="189" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -17297,7 +18237,7 @@
       <c r="BM189" s="7"/>
       <c r="BN189" s="7"/>
     </row>
-    <row r="190" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -17365,7 +18305,7 @@
       <c r="BM190" s="7"/>
       <c r="BN190" s="7"/>
     </row>
-    <row r="191" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -17433,7 +18373,7 @@
       <c r="BM191" s="7"/>
       <c r="BN191" s="7"/>
     </row>
-    <row r="192" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -17501,7 +18441,7 @@
       <c r="BM192" s="7"/>
       <c r="BN192" s="7"/>
     </row>
-    <row r="193" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -17569,9 +18509,11 @@
       <c r="BM193" s="7"/>
       <c r="BN193" s="7"/>
     </row>
-    <row r="194" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -17637,7 +18579,7 @@
       <c r="BM194" s="7"/>
       <c r="BN194" s="7"/>
     </row>
-    <row r="195" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -17705,7 +18647,7 @@
       <c r="BM195" s="7"/>
       <c r="BN195" s="7"/>
     </row>
-    <row r="196" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -17773,7 +18715,7 @@
       <c r="BM196" s="7"/>
       <c r="BN196" s="7"/>
     </row>
-    <row r="197" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -17841,7 +18783,7 @@
       <c r="BM197" s="7"/>
       <c r="BN197" s="7"/>
     </row>
-    <row r="198" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -17909,7 +18851,7 @@
       <c r="BM198" s="7"/>
       <c r="BN198" s="7"/>
     </row>
-    <row r="199" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -17949,8 +18891,9 @@
       <c r="AK199" s="7"/>
       <c r="AL199" s="7"/>
       <c r="AM199" s="7"/>
-      <c r="AN199" s="7"/>
-      <c r="AO199" s="7"/>
+      <c r="AN199" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="AP199" s="7"/>
       <c r="AQ199" s="7"/>
       <c r="AR199" s="7"/>
@@ -17977,13 +18920,12 @@
       <c r="BM199" s="7"/>
       <c r="BN199" s="7"/>
     </row>
-    <row r="200" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -18045,7 +18987,7 @@
       <c r="BM200" s="7"/>
       <c r="BN200" s="7"/>
     </row>
-    <row r="201" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -18113,12 +19055,14 @@
       <c r="BM201" s="7"/>
       <c r="BN201" s="7"/>
     </row>
-    <row r="202" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
+      <c r="E202" s="81" t="s">
+        <v>53</v>
+      </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
@@ -18181,7 +19125,7 @@
       <c r="BM202" s="7"/>
       <c r="BN202" s="7"/>
     </row>
-    <row r="203" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -18249,7 +19193,7 @@
       <c r="BM203" s="7"/>
       <c r="BN203" s="7"/>
     </row>
-    <row r="204" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -18317,7 +19261,7 @@
       <c r="BM204" s="7"/>
       <c r="BN204" s="7"/>
     </row>
-    <row r="205" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -18385,7 +19329,7 @@
       <c r="BM205" s="7"/>
       <c r="BN205" s="7"/>
     </row>
-    <row r="206" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -18453,7 +19397,7 @@
       <c r="BM206" s="7"/>
       <c r="BN206" s="7"/>
     </row>
-    <row r="207" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -18521,7 +19465,7 @@
       <c r="BM207" s="7"/>
       <c r="BN207" s="7"/>
     </row>
-    <row r="208" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -18589,7 +19533,7 @@
       <c r="BM208" s="7"/>
       <c r="BN208" s="7"/>
     </row>
-    <row r="209" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -18657,7 +19601,7 @@
       <c r="BM209" s="7"/>
       <c r="BN209" s="7"/>
     </row>
-    <row r="210" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -18725,7 +19669,7 @@
       <c r="BM210" s="7"/>
       <c r="BN210" s="7"/>
     </row>
-    <row r="211" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -18793,7 +19737,7 @@
       <c r="BM211" s="7"/>
       <c r="BN211" s="7"/>
     </row>
-    <row r="212" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -18861,7 +19805,7 @@
       <c r="BM212" s="7"/>
       <c r="BN212" s="7"/>
     </row>
-    <row r="213" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -18929,7 +19873,7 @@
       <c r="BM213" s="7"/>
       <c r="BN213" s="7"/>
     </row>
-    <row r="214" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -18997,7 +19941,7 @@
       <c r="BM214" s="7"/>
       <c r="BN214" s="7"/>
     </row>
-    <row r="215" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -19065,7 +20009,7 @@
       <c r="BM215" s="7"/>
       <c r="BN215" s="7"/>
     </row>
-    <row r="216" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -19133,11 +20077,15 @@
       <c r="BM216" s="7"/>
       <c r="BN216" s="7"/>
     </row>
-    <row r="217" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+      <c r="B217" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
+      <c r="D217" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
@@ -19201,7 +20149,7 @@
       <c r="BM217" s="7"/>
       <c r="BN217" s="7"/>
     </row>
-    <row r="218" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -19236,11 +20184,12 @@
       <c r="AF218" s="7"/>
       <c r="AG218" s="8"/>
       <c r="AH218" s="7"/>
-      <c r="AI218" s="7"/>
+      <c r="AI218" s="81" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ218" s="7"/>
       <c r="AK218" s="7"/>
       <c r="AL218" s="7"/>
-      <c r="AM218" s="7"/>
       <c r="AN218" s="7"/>
       <c r="AO218" s="7"/>
       <c r="AP218" s="7"/>
@@ -19269,7 +20218,7 @@
       <c r="BM218" s="7"/>
       <c r="BN218" s="7"/>
     </row>
-    <row r="219" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -19337,7 +20286,7 @@
       <c r="BM219" s="7"/>
       <c r="BN219" s="7"/>
     </row>
-    <row r="220" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -19372,7 +20321,9 @@
       <c r="AF220" s="7"/>
       <c r="AG220" s="8"/>
       <c r="AH220" s="7"/>
-      <c r="AI220" s="7"/>
+      <c r="AI220" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ220" s="7"/>
       <c r="AK220" s="7"/>
       <c r="AL220" s="7"/>
@@ -19405,7 +20356,7 @@
       <c r="BM220" s="7"/>
       <c r="BN220" s="7"/>
     </row>
-    <row r="221" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -19440,7 +20391,9 @@
       <c r="AF221" s="7"/>
       <c r="AG221" s="8"/>
       <c r="AH221" s="7"/>
-      <c r="AI221" s="7"/>
+      <c r="AI221" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="AJ221" s="7"/>
       <c r="AK221" s="7"/>
       <c r="AL221" s="7"/>
@@ -19473,7 +20426,7 @@
       <c r="BM221" s="7"/>
       <c r="BN221" s="7"/>
     </row>
-    <row r="222" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -19508,7 +20461,9 @@
       <c r="AF222" s="7"/>
       <c r="AG222" s="8"/>
       <c r="AH222" s="7"/>
-      <c r="AI222" s="7"/>
+      <c r="AI222" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="AJ222" s="7"/>
       <c r="AK222" s="7"/>
       <c r="AL222" s="7"/>
@@ -19541,7 +20496,7 @@
       <c r="BM222" s="7"/>
       <c r="BN222" s="7"/>
     </row>
-    <row r="223" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -19609,7 +20564,7 @@
       <c r="BM223" s="7"/>
       <c r="BN223" s="7"/>
     </row>
-    <row r="224" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -19677,7 +20632,7 @@
       <c r="BM224" s="7"/>
       <c r="BN224" s="7"/>
     </row>
-    <row r="225" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -19745,7 +20700,7 @@
       <c r="BM225" s="7"/>
       <c r="BN225" s="7"/>
     </row>
-    <row r="226" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -19813,7 +20768,7 @@
       <c r="BM226" s="7"/>
       <c r="BN226" s="7"/>
     </row>
-    <row r="227" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -19881,7 +20836,7 @@
       <c r="BM227" s="7"/>
       <c r="BN227" s="7"/>
     </row>
-    <row r="228" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -19949,7 +20904,7 @@
       <c r="BM228" s="7"/>
       <c r="BN228" s="7"/>
     </row>
-    <row r="229" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -20017,12 +20972,14 @@
       <c r="BM229" s="7"/>
       <c r="BN229" s="7"/>
     </row>
-    <row r="230" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
+      <c r="E230" s="81" t="s">
+        <v>56</v>
+      </c>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
@@ -20085,7 +21042,7 @@
       <c r="BM230" s="7"/>
       <c r="BN230" s="7"/>
     </row>
-    <row r="231" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -20119,7 +21076,9 @@
       <c r="AE231" s="7"/>
       <c r="AF231" s="7"/>
       <c r="AG231" s="8"/>
-      <c r="AH231" s="7"/>
+      <c r="AH231" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="AI231" s="7"/>
       <c r="AJ231" s="7"/>
       <c r="AK231" s="7"/>
@@ -20153,11 +21112,15 @@
       <c r="BM231" s="7"/>
       <c r="BN231" s="7"/>
     </row>
-    <row r="232" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
+      <c r="D232" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
@@ -20221,10 +21184,12 @@
       <c r="BM232" s="7"/>
       <c r="BN232" s="7"/>
     </row>
-    <row r="233" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
+      <c r="C233" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
@@ -20289,10 +21254,12 @@
       <c r="BM233" s="7"/>
       <c r="BN233" s="7"/>
     </row>
-    <row r="234" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
+      <c r="C234" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
@@ -20357,7 +21324,7 @@
       <c r="BM234" s="7"/>
       <c r="BN234" s="7"/>
     </row>
-    <row r="235" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -20425,7 +21392,7 @@
       <c r="BM235" s="7"/>
       <c r="BN235" s="7"/>
     </row>
-    <row r="236" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -20493,7 +21460,7 @@
       <c r="BM236" s="7"/>
       <c r="BN236" s="7"/>
     </row>
-    <row r="237" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -20561,9 +21528,11 @@
       <c r="BM237" s="7"/>
       <c r="BN237" s="7"/>
     </row>
-    <row r="238" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -20629,7 +21598,7 @@
       <c r="BM238" s="7"/>
       <c r="BN238" s="7"/>
     </row>
-    <row r="239" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -20697,7 +21666,7 @@
       <c r="BM239" s="7"/>
       <c r="BN239" s="7"/>
     </row>
-    <row r="240" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -20765,7 +21734,7 @@
       <c r="BM240" s="7"/>
       <c r="BN240" s="7"/>
     </row>
-    <row r="241" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -20833,7 +21802,7 @@
       <c r="BM241" s="7"/>
       <c r="BN241" s="7"/>
     </row>
-    <row r="242" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -20901,7 +21870,7 @@
       <c r="BM242" s="7"/>
       <c r="BN242" s="7"/>
     </row>
-    <row r="243" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -20969,7 +21938,7 @@
       <c r="BM243" s="7"/>
       <c r="BN243" s="7"/>
     </row>
-    <row r="244" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -21037,7 +22006,7 @@
       <c r="BM244" s="7"/>
       <c r="BN244" s="7"/>
     </row>
-    <row r="245" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -21105,7 +22074,7 @@
       <c r="BM245" s="7"/>
       <c r="BN245" s="7"/>
     </row>
-    <row r="246" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -21173,7 +22142,7 @@
       <c r="BM246" s="7"/>
       <c r="BN246" s="7"/>
     </row>
-    <row r="247" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -21241,7 +22210,7 @@
       <c r="BM247" s="7"/>
       <c r="BN247" s="7"/>
     </row>
-    <row r="248" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -21309,7 +22278,7 @@
       <c r="BM248" s="7"/>
       <c r="BN248" s="7"/>
     </row>
-    <row r="249" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -21377,7 +22346,7 @@
       <c r="BM249" s="7"/>
       <c r="BN249" s="7"/>
     </row>
-    <row r="250" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -21445,7 +22414,7 @@
       <c r="BM250" s="7"/>
       <c r="BN250" s="7"/>
     </row>
-    <row r="251" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -21513,9 +22482,11 @@
       <c r="BM251" s="7"/>
       <c r="BN251" s="7"/>
     </row>
-    <row r="252" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -21581,9 +22552,11 @@
       <c r="BM252" s="7"/>
       <c r="BN252" s="7"/>
     </row>
-    <row r="253" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -21649,7 +22622,7 @@
       <c r="BM253" s="7"/>
       <c r="BN253" s="7"/>
     </row>
-    <row r="254" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -21717,7 +22690,7 @@
       <c r="BM254" s="7"/>
       <c r="BN254" s="7"/>
     </row>
-    <row r="255" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -21785,7 +22758,7 @@
       <c r="BM255" s="7"/>
       <c r="BN255" s="7"/>
     </row>
-    <row r="256" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -21853,7 +22826,7 @@
       <c r="BM256" s="7"/>
       <c r="BN256" s="7"/>
     </row>
-    <row r="257" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -21921,7 +22894,7 @@
       <c r="BM257" s="7"/>
       <c r="BN257" s="7"/>
     </row>
-    <row r="258" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -21989,7 +22962,7 @@
       <c r="BM258" s="7"/>
       <c r="BN258" s="7"/>
     </row>
-    <row r="259" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -22057,7 +23030,7 @@
       <c r="BM259" s="7"/>
       <c r="BN259" s="7"/>
     </row>
-    <row r="260" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -22125,7 +23098,7 @@
       <c r="BM260" s="7"/>
       <c r="BN260" s="7"/>
     </row>
-    <row r="261" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -22193,7 +23166,7 @@
       <c r="BM261" s="7"/>
       <c r="BN261" s="7"/>
     </row>
-    <row r="262" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -22261,7 +23234,7 @@
       <c r="BM262" s="7"/>
       <c r="BN262" s="7"/>
     </row>
-    <row r="263" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -22329,7 +23302,7 @@
       <c r="BM263" s="7"/>
       <c r="BN263" s="7"/>
     </row>
-    <row r="264" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -22397,7 +23370,7 @@
       <c r="BM264" s="7"/>
       <c r="BN264" s="7"/>
     </row>
-    <row r="265" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -22465,7 +23438,7 @@
       <c r="BM265" s="7"/>
       <c r="BN265" s="7"/>
     </row>
-    <row r="266" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -22533,7 +23506,7 @@
       <c r="BM266" s="7"/>
       <c r="BN266" s="7"/>
     </row>
-    <row r="267" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -22601,7 +23574,7 @@
       <c r="BM267" s="7"/>
       <c r="BN267" s="7"/>
     </row>
-    <row r="268" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -22669,7 +23642,7 @@
       <c r="BM268" s="7"/>
       <c r="BN268" s="7"/>
     </row>
-    <row r="269" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -22737,7 +23710,7 @@
       <c r="BM269" s="7"/>
       <c r="BN269" s="7"/>
     </row>
-    <row r="270" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -22805,7 +23778,7 @@
       <c r="BM270" s="7"/>
       <c r="BN270" s="7"/>
     </row>
-    <row r="271" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -22873,7 +23846,7 @@
       <c r="BM271" s="7"/>
       <c r="BN271" s="7"/>
     </row>
-    <row r="272" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -22941,7 +23914,7 @@
       <c r="BM272" s="7"/>
       <c r="BN272" s="7"/>
     </row>
-    <row r="273" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -23009,7 +23982,7 @@
       <c r="BM273" s="7"/>
       <c r="BN273" s="7"/>
     </row>
-    <row r="274" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -23077,7 +24050,7 @@
       <c r="BM274" s="7"/>
       <c r="BN274" s="7"/>
     </row>
-    <row r="275" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -23145,7 +24118,7 @@
       <c r="BM275" s="7"/>
       <c r="BN275" s="7"/>
     </row>
-    <row r="276" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -23213,7 +24186,7 @@
       <c r="BM276" s="7"/>
       <c r="BN276" s="7"/>
     </row>
-    <row r="277" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -23281,7 +24254,7 @@
       <c r="BM277" s="7"/>
       <c r="BN277" s="7"/>
     </row>
-    <row r="278" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -23349,7 +24322,7 @@
       <c r="BM278" s="7"/>
       <c r="BN278" s="7"/>
     </row>
-    <row r="279" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -23417,7 +24390,7 @@
       <c r="BM279" s="7"/>
       <c r="BN279" s="7"/>
     </row>
-    <row r="280" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -23485,7 +24458,7 @@
       <c r="BM280" s="7"/>
       <c r="BN280" s="7"/>
     </row>
-    <row r="281" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -23553,7 +24526,7 @@
       <c r="BM281" s="7"/>
       <c r="BN281" s="7"/>
     </row>
-    <row r="282" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -23621,7 +24594,7 @@
       <c r="BM282" s="7"/>
       <c r="BN282" s="7"/>
     </row>
-    <row r="283" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -23689,7 +24662,7 @@
       <c r="BM283" s="7"/>
       <c r="BN283" s="7"/>
     </row>
-    <row r="284" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -23757,7 +24730,7 @@
       <c r="BM284" s="7"/>
       <c r="BN284" s="7"/>
     </row>
-    <row r="285" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -23825,7 +24798,7 @@
       <c r="BM285" s="7"/>
       <c r="BN285" s="7"/>
     </row>
-    <row r="286" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -23893,7 +24866,7 @@
       <c r="BM286" s="7"/>
       <c r="BN286" s="7"/>
     </row>
-    <row r="287" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -23961,7 +24934,7 @@
       <c r="BM287" s="7"/>
       <c r="BN287" s="7"/>
     </row>
-    <row r="288" spans="1:66" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -23994,7 +24967,8 @@
       <c r="AD288" s="7"/>
       <c r="AE288" s="7"/>
       <c r="AF288" s="7"/>
-      <c r="AG288" s="7"/>
+      <c r="AG288" s="8"/>
+      <c r="AH288" s="7"/>
       <c r="AI288" s="7"/>
       <c r="AJ288" s="7"/>
       <c r="AK288" s="7"/>
@@ -24026,8 +25000,9 @@
       <c r="BK288" s="7"/>
       <c r="BL288" s="7"/>
       <c r="BM288" s="7"/>
-    </row>
-    <row r="289" spans="1:65" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN288" s="7"/>
+    </row>
+    <row r="289" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -24060,6 +25035,8 @@
       <c r="AD289" s="7"/>
       <c r="AE289" s="7"/>
       <c r="AF289" s="7"/>
+      <c r="AG289" s="8"/>
+      <c r="AH289" s="7"/>
       <c r="AI289" s="7"/>
       <c r="AJ289" s="7"/>
       <c r="AK289" s="7"/>
@@ -24091,8 +25068,10 @@
       <c r="BK289" s="7"/>
       <c r="BL289" s="7"/>
       <c r="BM289" s="7"/>
-    </row>
-    <row r="290" spans="1:65" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BN289" s="7"/>
+    </row>
+    <row r="290" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
@@ -24124,6 +25103,8 @@
       <c r="AD290" s="7"/>
       <c r="AE290" s="7"/>
       <c r="AF290" s="7"/>
+      <c r="AG290" s="8"/>
+      <c r="AH290" s="7"/>
       <c r="AI290" s="7"/>
       <c r="AJ290" s="7"/>
       <c r="AK290" s="7"/>
@@ -24154,6 +25135,338 @@
       <c r="BJ290" s="7"/>
       <c r="BK290" s="7"/>
       <c r="BL290" s="7"/>
+      <c r="BM290" s="7"/>
+      <c r="BN290" s="7"/>
+    </row>
+    <row r="291" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A291" s="7"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+      <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="7"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="7"/>
+      <c r="N291" s="7"/>
+      <c r="O291" s="7"/>
+      <c r="P291" s="7"/>
+      <c r="Q291" s="7"/>
+      <c r="R291" s="7"/>
+      <c r="S291" s="7"/>
+      <c r="T291" s="7"/>
+      <c r="U291" s="7"/>
+      <c r="V291" s="7"/>
+      <c r="W291" s="7"/>
+      <c r="X291" s="7"/>
+      <c r="Y291" s="7"/>
+      <c r="Z291" s="7"/>
+      <c r="AA291" s="7"/>
+      <c r="AB291" s="7"/>
+      <c r="AC291" s="7"/>
+      <c r="AD291" s="7"/>
+      <c r="AE291" s="7"/>
+      <c r="AF291" s="7"/>
+      <c r="AG291" s="8"/>
+      <c r="AH291" s="7"/>
+      <c r="AI291" s="7"/>
+      <c r="AJ291" s="7"/>
+      <c r="AK291" s="7"/>
+      <c r="AL291" s="7"/>
+      <c r="AM291" s="7"/>
+      <c r="AN291" s="7"/>
+      <c r="AO291" s="7"/>
+      <c r="AP291" s="7"/>
+      <c r="AQ291" s="7"/>
+      <c r="AR291" s="7"/>
+      <c r="AS291" s="7"/>
+      <c r="AT291" s="7"/>
+      <c r="AU291" s="7"/>
+      <c r="AV291" s="7"/>
+      <c r="AW291" s="7"/>
+      <c r="AX291" s="7"/>
+      <c r="AY291" s="7"/>
+      <c r="AZ291" s="7"/>
+      <c r="BA291" s="7"/>
+      <c r="BB291" s="7"/>
+      <c r="BC291" s="7"/>
+      <c r="BD291" s="7"/>
+      <c r="BE291" s="7"/>
+      <c r="BF291" s="7"/>
+      <c r="BG291" s="7"/>
+      <c r="BH291" s="7"/>
+      <c r="BI291" s="7"/>
+      <c r="BJ291" s="7"/>
+      <c r="BK291" s="7"/>
+      <c r="BL291" s="7"/>
+      <c r="BM291" s="7"/>
+      <c r="BN291" s="7"/>
+    </row>
+    <row r="292" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="7"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+      <c r="Q292" s="7"/>
+      <c r="R292" s="7"/>
+      <c r="S292" s="7"/>
+      <c r="T292" s="7"/>
+      <c r="U292" s="7"/>
+      <c r="V292" s="7"/>
+      <c r="W292" s="7"/>
+      <c r="X292" s="7"/>
+      <c r="Y292" s="7"/>
+      <c r="Z292" s="7"/>
+      <c r="AA292" s="7"/>
+      <c r="AB292" s="7"/>
+      <c r="AC292" s="7"/>
+      <c r="AD292" s="7"/>
+      <c r="AE292" s="7"/>
+      <c r="AF292" s="7"/>
+      <c r="AG292" s="8"/>
+      <c r="AH292" s="7"/>
+      <c r="AI292" s="7"/>
+      <c r="AJ292" s="7"/>
+      <c r="AK292" s="7"/>
+      <c r="AL292" s="7"/>
+      <c r="AM292" s="7"/>
+      <c r="AN292" s="7"/>
+      <c r="AO292" s="7"/>
+      <c r="AP292" s="7"/>
+      <c r="AQ292" s="7"/>
+      <c r="AR292" s="7"/>
+      <c r="AS292" s="7"/>
+      <c r="AT292" s="7"/>
+      <c r="AU292" s="7"/>
+      <c r="AV292" s="7"/>
+      <c r="AW292" s="7"/>
+      <c r="AX292" s="7"/>
+      <c r="AY292" s="7"/>
+      <c r="AZ292" s="7"/>
+      <c r="BA292" s="7"/>
+      <c r="BB292" s="7"/>
+      <c r="BC292" s="7"/>
+      <c r="BD292" s="7"/>
+      <c r="BE292" s="7"/>
+      <c r="BF292" s="7"/>
+      <c r="BG292" s="7"/>
+      <c r="BH292" s="7"/>
+      <c r="BI292" s="7"/>
+      <c r="BJ292" s="7"/>
+      <c r="BK292" s="7"/>
+      <c r="BL292" s="7"/>
+      <c r="BM292" s="7"/>
+      <c r="BN292" s="7"/>
+    </row>
+    <row r="293" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A293" s="7"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="7"/>
+      <c r="N293" s="7"/>
+      <c r="O293" s="7"/>
+      <c r="P293" s="7"/>
+      <c r="Q293" s="7"/>
+      <c r="R293" s="7"/>
+      <c r="S293" s="7"/>
+      <c r="T293" s="7"/>
+      <c r="U293" s="7"/>
+      <c r="V293" s="7"/>
+      <c r="W293" s="7"/>
+      <c r="X293" s="7"/>
+      <c r="Y293" s="7"/>
+      <c r="Z293" s="7"/>
+      <c r="AA293" s="7"/>
+      <c r="AB293" s="7"/>
+      <c r="AC293" s="7"/>
+      <c r="AD293" s="7"/>
+      <c r="AE293" s="7"/>
+      <c r="AF293" s="7"/>
+      <c r="AG293" s="7"/>
+      <c r="AI293" s="7"/>
+      <c r="AJ293" s="7"/>
+      <c r="AK293" s="7"/>
+      <c r="AL293" s="7"/>
+      <c r="AM293" s="7"/>
+      <c r="AN293" s="7"/>
+      <c r="AO293" s="7"/>
+      <c r="AP293" s="7"/>
+      <c r="AQ293" s="7"/>
+      <c r="AR293" s="7"/>
+      <c r="AS293" s="7"/>
+      <c r="AT293" s="7"/>
+      <c r="AU293" s="7"/>
+      <c r="AV293" s="7"/>
+      <c r="AW293" s="7"/>
+      <c r="AX293" s="7"/>
+      <c r="AY293" s="7"/>
+      <c r="AZ293" s="7"/>
+      <c r="BA293" s="7"/>
+      <c r="BB293" s="7"/>
+      <c r="BC293" s="7"/>
+      <c r="BD293" s="7"/>
+      <c r="BE293" s="7"/>
+      <c r="BF293" s="7"/>
+      <c r="BG293" s="7"/>
+      <c r="BH293" s="7"/>
+      <c r="BI293" s="7"/>
+      <c r="BJ293" s="7"/>
+      <c r="BK293" s="7"/>
+      <c r="BL293" s="7"/>
+      <c r="BM293" s="7"/>
+    </row>
+    <row r="294" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="7"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
+      <c r="Q294" s="7"/>
+      <c r="R294" s="7"/>
+      <c r="S294" s="7"/>
+      <c r="T294" s="7"/>
+      <c r="U294" s="7"/>
+      <c r="V294" s="7"/>
+      <c r="W294" s="7"/>
+      <c r="X294" s="7"/>
+      <c r="Y294" s="7"/>
+      <c r="Z294" s="7"/>
+      <c r="AA294" s="7"/>
+      <c r="AB294" s="7"/>
+      <c r="AC294" s="7"/>
+      <c r="AD294" s="7"/>
+      <c r="AE294" s="7"/>
+      <c r="AF294" s="7"/>
+      <c r="AI294" s="7"/>
+      <c r="AJ294" s="7"/>
+      <c r="AK294" s="7"/>
+      <c r="AL294" s="7"/>
+      <c r="AM294" s="7"/>
+      <c r="AN294" s="7"/>
+      <c r="AO294" s="7"/>
+      <c r="AP294" s="7"/>
+      <c r="AQ294" s="7"/>
+      <c r="AR294" s="7"/>
+      <c r="AS294" s="7"/>
+      <c r="AT294" s="7"/>
+      <c r="AU294" s="7"/>
+      <c r="AV294" s="7"/>
+      <c r="AW294" s="7"/>
+      <c r="AX294" s="7"/>
+      <c r="AY294" s="7"/>
+      <c r="AZ294" s="7"/>
+      <c r="BA294" s="7"/>
+      <c r="BB294" s="7"/>
+      <c r="BC294" s="7"/>
+      <c r="BD294" s="7"/>
+      <c r="BE294" s="7"/>
+      <c r="BF294" s="7"/>
+      <c r="BG294" s="7"/>
+      <c r="BH294" s="7"/>
+      <c r="BI294" s="7"/>
+      <c r="BJ294" s="7"/>
+      <c r="BK294" s="7"/>
+      <c r="BL294" s="7"/>
+      <c r="BM294" s="7"/>
+    </row>
+    <row r="295" spans="1:66" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
+      <c r="Q295" s="7"/>
+      <c r="R295" s="7"/>
+      <c r="S295" s="7"/>
+      <c r="T295" s="7"/>
+      <c r="U295" s="7"/>
+      <c r="V295" s="7"/>
+      <c r="W295" s="7"/>
+      <c r="X295" s="7"/>
+      <c r="Y295" s="7"/>
+      <c r="Z295" s="7"/>
+      <c r="AA295" s="7"/>
+      <c r="AB295" s="7"/>
+      <c r="AC295" s="7"/>
+      <c r="AD295" s="7"/>
+      <c r="AE295" s="7"/>
+      <c r="AF295" s="7"/>
+      <c r="AI295" s="7"/>
+      <c r="AJ295" s="7"/>
+      <c r="AK295" s="7"/>
+      <c r="AL295" s="7"/>
+      <c r="AM295" s="7"/>
+      <c r="AN295" s="7"/>
+      <c r="AO295" s="7"/>
+      <c r="AP295" s="7"/>
+      <c r="AQ295" s="7"/>
+      <c r="AR295" s="7"/>
+      <c r="AS295" s="7"/>
+      <c r="AT295" s="7"/>
+      <c r="AU295" s="7"/>
+      <c r="AV295" s="7"/>
+      <c r="AW295" s="7"/>
+      <c r="AX295" s="7"/>
+      <c r="AY295" s="7"/>
+      <c r="AZ295" s="7"/>
+      <c r="BA295" s="7"/>
+      <c r="BB295" s="7"/>
+      <c r="BC295" s="7"/>
+      <c r="BD295" s="7"/>
+      <c r="BE295" s="7"/>
+      <c r="BF295" s="7"/>
+      <c r="BG295" s="7"/>
+      <c r="BH295" s="7"/>
+      <c r="BI295" s="7"/>
+      <c r="BJ295" s="7"/>
+      <c r="BK295" s="7"/>
+      <c r="BL295" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24171,7 +25484,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="O2:P2" location="index!A1" display="back" xr:uid="{CFC8062A-F357-43DB-BB78-E205C2B0F90B}"/>
+    <hyperlink ref="O2:P2" location="index!A1" display="back"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -24184,12 +25497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7E58B-BC24-4CE3-8709-B6F0D2799EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24329,18 +25642,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24362,6 +25675,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0417E730-B4EB-4737-AD41-3022921482BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EAB34A8-F5A8-4843-AABA-8FD793004118}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -24375,12 +25696,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0417E730-B4EB-4737-AD41-3022921482BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>